--- a/data/xlsx/QUEST-TM.xlsx
+++ b/data/xlsx/QUEST-TM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Denis/Desktop/QUEST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Denis/Documents/Publis/Benchmarks-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B298EB41-6380-C147-89A9-910E8809CCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD85634-7AC0-FF4C-B80A-E7C8960A9ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="760" windowWidth="38500" windowHeight="15260" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="38500" windowHeight="15260" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CuCl" sheetId="9" r:id="rId1"/>
@@ -810,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -869,7 +869,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5782,7 +5781,7 @@
       <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="15" t="s">
         <v>184</v>
       </c>
       <c r="H1" s="4"/>
@@ -6575,7 +6574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
